--- a/pred_ohlcv/54_21/2019-10-26 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 STRAT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-10825.92290000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8820.399700000005</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8742.141900000006</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8324.815800000008</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8615.392900000008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7958.119200000008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8282.460900000009</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8277.777600000009</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8275.777600000009</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-8346.243400000008</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-14782.01557253</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-14909.31557253</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-14661.31557253</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-21953.32437253001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-36363.70037253001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-42009.80070815001</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-42039.70070815001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 STRAT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-10825.92290000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-8820.399700000005</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8742.141900000006</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-8973.190400000007</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-8324.815800000008</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8615.392900000008</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-7958.119200000008</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8282.460900000009</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8277.777600000009</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8275.777600000009</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-8346.243400000008</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8806.715600000009</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-9407.730000000009</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8935.032500000008</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-9164.032500000008</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-9029.550000000008</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20057.05327253001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-12897.20247253001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13467.52897253001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-15018.12607253001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-14782.01557253</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-14909.31557253</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-14661.31557253</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16281.03597253</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-16280.03597253</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-21818.80827253</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-16685.79357253</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22061.10217253001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-21954.32437253001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-38520.88740815001</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-38570.88740815001</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-40120.88750815001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-41270.88750815001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-42009.80070815001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-42039.70070815001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-42448.44070815001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
